--- a/project_doc/前端项目svn地址及注意事项.xlsx
+++ b/project_doc/前端项目svn地址及注意事项.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -146,9 +146,6 @@
     <t>svn://160.255.0.56/01module/lres/03code/lresweb2022/control</t>
   </si>
   <si>
-    <t>暂未配置</t>
-  </si>
-  <si>
     <t>读者教育——用户端</t>
   </si>
   <si>
@@ -396,6 +393,30 @@
   </si>
   <si>
     <t>16000-1或5/123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.20.0.116/lres2022/control</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>reader2/123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.20.0.116/lres2022/web </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.20.0.116/lres2022/mobile</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>208080337/123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>208080337/123、208080338/123</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -633,6 +654,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -646,25 +685,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1025,13 +1046,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
@@ -1048,11 +1069,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -1169,11 +1190,11 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1204,10 +1225,12 @@
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1217,18 +1240,20 @@
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1238,18 +1263,20 @@
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1284,11 +1311,11 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
@@ -1310,20 +1337,20 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="25" t="s">
-        <v>30</v>
+      <c r="B20" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>33</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1333,17 +1360,17 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="25"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1352,19 +1379,19 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="26" t="s">
-        <v>36</v>
+      <c r="B22" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1373,17 +1400,17 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="25"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1392,19 +1419,19 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="26" t="s">
-        <v>41</v>
+      <c r="B24" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1413,17 +1440,17 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="27"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1432,19 +1459,19 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="25" t="s">
-        <v>46</v>
+      <c r="B26" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1453,17 +1480,17 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="27"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1472,19 +1499,19 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="25" t="s">
-        <v>51</v>
+      <c r="B28" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1493,17 +1520,17 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="25"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1512,19 +1539,19 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="28" t="s">
-        <v>54</v>
+      <c r="B30" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1533,17 +1560,17 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="25"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -1552,19 +1579,19 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="26" t="s">
-        <v>59</v>
+      <c r="B32" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1573,17 +1600,17 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="25"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1618,11 +1645,11 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
@@ -1657,19 +1684,19 @@
     </row>
     <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="F38" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1680,19 +1707,19 @@
     </row>
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1703,19 +1730,19 @@
     </row>
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="F40" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -1725,20 +1752,20 @@
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
-        <v>76</v>
+      <c r="B41" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1748,17 +1775,17 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="27"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -1767,20 +1794,20 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="29" t="s">
-        <v>82</v>
+      <c r="B43" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>93</v>
+      <c r="F43" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -1790,17 +1817,17 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="31"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -1809,34 +1836,34 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="26" t="s">
-        <v>87</v>
+      <c r="B45" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="F45" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="32" t="s">
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="24"/>
+      <c r="C46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="29"/>
-      <c r="C46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.15">
       <c r="B47" s="15"/>
@@ -1889,13 +1916,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B11:D11"/>
@@ -1908,6 +1928,13 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -1934,6 +1961,9 @@
     <hyperlink ref="E43" r:id="rId21"/>
     <hyperlink ref="E45" r:id="rId22"/>
     <hyperlink ref="E46" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="E15" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/project_doc/前端项目svn地址及注意事项.xlsx
+++ b/project_doc/前端项目svn地址及注意事项.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -419,12 +419,51 @@
     <t>208080337/123、208080338/123</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>座位预约</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://seat.dev.angke.cn/mseat/#/index </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> svn://160.255.0.56/01module/seatreser/03code/seat_v2_pc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>民国库</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端 http://172.20.1.251:8085/book/h5/index/index.html</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台 http://172.20.1.251:8085/appportalweb/</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://160.255.0.56/mgsjk/03code/book/src/main/webapp/h5</t>
+  </si>
+  <si>
+    <t>PC端</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,6 +559,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -587,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,11 +710,29 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -672,20 +746,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1046,13 +1114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
@@ -1069,11 +1137,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -1190,11 +1258,11 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1311,11 +1379,11 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
@@ -1337,7 +1405,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1349,7 +1417,7 @@
       <c r="E20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="31" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="10"/>
@@ -1360,7 +1428,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1438,7 @@
       <c r="E21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1379,7 +1447,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -1391,7 +1459,7 @@
       <c r="E22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1400,7 +1468,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1478,7 @@
       <c r="E23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1419,7 +1487,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1431,7 +1499,7 @@
       <c r="E24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1440,7 +1508,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1450,7 +1518,7 @@
       <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1459,7 +1527,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -1471,7 +1539,7 @@
       <c r="E26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1480,7 +1548,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1558,7 @@
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1499,7 +1567,7 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1511,7 +1579,7 @@
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1520,7 +1588,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="31"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1598,7 @@
       <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1539,7 +1607,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -1551,7 +1619,7 @@
       <c r="E30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1560,7 +1628,7 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="6" t="s">
         <v>26</v>
       </c>
@@ -1570,7 +1638,7 @@
       <c r="E31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -1579,7 +1647,7 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -1591,7 +1659,7 @@
       <c r="E32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1600,7 +1668,7 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1678,7 @@
       <c r="E33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1645,11 +1713,11 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
@@ -1752,7 +1820,7 @@
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="27" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -1764,7 +1832,7 @@
       <c r="E41" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="33" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="10"/>
@@ -1775,7 +1843,7 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="23"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="13" t="s">
         <v>26</v>
       </c>
@@ -1785,7 +1853,7 @@
       <c r="E42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -1794,7 +1862,7 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1806,7 +1874,7 @@
       <c r="E43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="33" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="10"/>
@@ -1817,7 +1885,7 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="24"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="6" t="s">
         <v>26</v>
       </c>
@@ -1827,7 +1895,7 @@
       <c r="E44" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -1836,11 +1904,11 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>8</v>
+      <c r="C45" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>87</v>
@@ -1848,12 +1916,12 @@
       <c r="E45" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="24"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="6" t="s">
         <v>26</v>
       </c>
@@ -1863,28 +1931,52 @@
       <c r="E46" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.15">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.15">
       <c r="B50" s="15"/>
@@ -1904,7 +1996,7 @@
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="15"/>
     </row>
     <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.15">
@@ -1916,6 +2008,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B11:D11"/>
@@ -1928,13 +2027,6 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -1964,7 +2056,9 @@
     <hyperlink ref="E13" r:id="rId24"/>
     <hyperlink ref="E14" r:id="rId25"/>
     <hyperlink ref="E15" r:id="rId26"/>
+    <hyperlink ref="E47" r:id="rId27" location="/index "/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/project_doc/前端项目svn地址及注意事项.xlsx
+++ b/project_doc/前端项目svn地址及注意事项.xlsx
@@ -143,9 +143,6 @@
     <t>读者教育—管理端</t>
   </si>
   <si>
-    <t>svn://160.255.0.56/01module/lres/03code/lresweb2022/control</t>
-  </si>
-  <si>
     <t>读者教育——用户端</t>
   </si>
   <si>
@@ -396,10 +393,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>http://172.20.0.116/lres2022/control</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>reader2/123</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -456,6 +449,16 @@
   </si>
   <si>
     <t>PC端</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://160.255.0.56/01module/lres/03code/lresweb2022/control
+svn://sw@160.255.0.56/01module/lres/03code/lres_nhdz@HEAD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.20.0.116/lres2022/control
+http://172.20.1.236/lres/control/</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +716,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -726,34 +756,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1114,13 +1123,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
@@ -1137,11 +1146,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -1258,11 +1267,11 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1283,21 +1292,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>93</v>
+      <c r="D13" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1308,19 +1317,19 @@
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1331,19 +1340,19 @@
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1379,11 +1388,11 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
@@ -1405,20 +1414,20 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="26" t="s">
-        <v>29</v>
+      <c r="B20" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>32</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1428,17 +1437,17 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1447,19 +1456,19 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="27" t="s">
-        <v>35</v>
+      <c r="B22" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1468,17 +1477,17 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1487,19 +1496,19 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="27" t="s">
-        <v>40</v>
+      <c r="B24" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1508,17 +1517,17 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1527,19 +1536,19 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="26" t="s">
-        <v>45</v>
+      <c r="B26" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1548,17 +1557,17 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1567,19 +1576,19 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="26" t="s">
-        <v>50</v>
+      <c r="B28" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="32"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1588,17 +1597,17 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="26"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1607,19 +1616,19 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29" t="s">
-        <v>53</v>
+      <c r="B30" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="32"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1628,17 +1637,17 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="26"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -1647,19 +1656,19 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="27" t="s">
-        <v>58</v>
+      <c r="B32" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1668,17 +1677,17 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="26"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1713,11 +1722,11 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
@@ -1752,19 +1761,19 @@
     </row>
     <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="F38" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1775,19 +1784,19 @@
     </row>
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1798,19 +1807,19 @@
     </row>
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="F40" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -1820,20 +1829,20 @@
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="27" t="s">
-        <v>75</v>
+      <c r="B41" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1843,17 +1852,17 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="32"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -1862,20 +1871,20 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="30" t="s">
-        <v>81</v>
+      <c r="B43" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>92</v>
+      <c r="F43" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -1885,17 +1894,17 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="30"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="32"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -1904,78 +1913,78 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="F45" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="33" t="s">
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="28"/>
+      <c r="C46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="30"/>
-      <c r="C46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="32"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.15">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="35" t="s">
-        <v>106</v>
+      <c r="E49" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.15">
@@ -2008,13 +2017,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B11:D11"/>
@@ -2027,6 +2029,13 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -2053,7 +2062,7 @@
     <hyperlink ref="E43" r:id="rId21"/>
     <hyperlink ref="E45" r:id="rId22"/>
     <hyperlink ref="E46" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="E13" r:id="rId24" display="http://172.20.0.116/lres2022/control"/>
     <hyperlink ref="E14" r:id="rId25"/>
     <hyperlink ref="E15" r:id="rId26"/>
     <hyperlink ref="E47" r:id="rId27" location="/index "/>

--- a/project_doc/前端项目svn地址及注意事项.xlsx
+++ b/project_doc/前端项目svn地址及注意事项.xlsx
@@ -94,13 +94,7 @@
     <t>智慧工厂管理端</t>
   </si>
   <si>
-    <t>svn://160.255.0.56/01module/angke-cloud/angke-front/smartfactory</t>
-  </si>
-  <si>
     <t>http://172.20.0.188/smartfactory</t>
-  </si>
-  <si>
-    <t>card01 / 123</t>
   </si>
   <si>
     <r>
@@ -128,9 +122,6 @@
     <t>终端机</t>
   </si>
   <si>
-    <t>svn://160.255.0.56/01module/angke-cloud/angke-front/card</t>
-  </si>
-  <si>
     <t>http://172.20.0.188/card</t>
   </si>
   <si>
@@ -459,6 +450,18 @@
   <si>
     <t>http://172.20.0.116/lres2022/control
 http://172.20.1.236/lres/control/</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://160.255.0.56/01module/angke-cloud/angke-front/card</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://160.255.0.56/01module/angke-cloud/angke-front/smartfactory</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>card01 / 123;angke/123456</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -725,11 +728,32 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -742,27 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1118,18 +1121,18 @@
     <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="73.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="6" max="7" width="31.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
@@ -1146,11 +1149,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -1200,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1217,19 +1220,19 @@
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1267,11 +1270,11 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1294,19 +1297,19 @@
     </row>
     <row r="13" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>108</v>
+      <c r="D13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1317,19 +1320,19 @@
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1340,19 +1343,19 @@
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1388,11 +1391,11 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
@@ -1414,20 +1417,20 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
-        <v>28</v>
+      <c r="B20" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1437,17 +1440,17 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="F21" s="37"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1456,19 +1459,19 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="26" t="s">
-        <v>34</v>
+      <c r="B22" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="37"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1477,17 +1480,17 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="F23" s="37"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1496,19 +1499,19 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="26" t="s">
-        <v>39</v>
+      <c r="B24" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="F24" s="37"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1517,17 +1520,17 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="27"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="37"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1536,19 +1539,19 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="35" t="s">
-        <v>44</v>
+      <c r="B26" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="F26" s="37"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1557,17 +1560,17 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="27"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="37"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1576,19 +1579,19 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="35" t="s">
-        <v>49</v>
+      <c r="B28" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1597,17 +1600,17 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="30"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1616,19 +1619,19 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="36" t="s">
-        <v>52</v>
+      <c r="B30" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="F30" s="37"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1637,17 +1640,17 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="F31" s="37"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -1656,19 +1659,19 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="26" t="s">
-        <v>57</v>
+      <c r="B32" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="30"/>
+        <v>56</v>
+      </c>
+      <c r="F32" s="37"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1677,17 +1680,17 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="35"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="F33" s="37"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1722,11 +1725,11 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="B36" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
@@ -1761,19 +1764,19 @@
     </row>
     <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1784,19 +1787,19 @@
     </row>
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1807,19 +1810,19 @@
     </row>
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -1829,20 +1832,20 @@
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
-        <v>74</v>
+      <c r="B41" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1852,17 +1855,17 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="27"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="30"/>
+        <v>76</v>
+      </c>
+      <c r="F42" s="37"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -1871,20 +1874,20 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="28" t="s">
-        <v>80</v>
+      <c r="B43" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -1894,17 +1897,17 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="28"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="F44" s="37"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -1913,67 +1916,67 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="12" t="s">
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="35"/>
+      <c r="C46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E46" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="28"/>
-      <c r="C46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="30"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="E47" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.15">
@@ -1981,10 +1984,10 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.15">
@@ -2017,6 +2020,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B11:D11"/>
@@ -2029,13 +2039,6 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>

--- a/project_doc/前端项目svn地址及注意事项.xlsx
+++ b/project_doc/前端项目svn地址及注意事项.xlsx
@@ -371,9 +371,6 @@
     <t>http://app.dev.angke.com.cn/spaceadmin</t>
   </si>
   <si>
-    <t>9200001-1 / 123</t>
-  </si>
-  <si>
     <t>svn://160.255.0.56/01module/appointment/03code/appointmentFrontEnd_v2_mobile</t>
   </si>
   <si>
@@ -462,6 +459,11 @@
   </si>
   <si>
     <t>card01 / 123;angke/123456</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>9200001-1 / 123asD
+9200001-2 / 123</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +736,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -747,25 +767,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1126,13 +1131,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
@@ -1149,11 +1154,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -1203,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1226,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>15</v>
@@ -1270,11 +1275,11 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1303,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>105</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1329,10 +1334,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1352,10 +1357,10 @@
         <v>23</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1391,11 +1396,11 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
@@ -1417,7 +1422,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1429,7 +1434,7 @@
       <c r="E20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="31" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="10"/>
@@ -1440,7 +1445,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +1455,7 @@
       <c r="E21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1459,7 +1464,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -1471,7 +1476,7 @@
       <c r="E22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1480,7 +1485,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
@@ -1490,7 +1495,7 @@
       <c r="E23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1499,7 +1504,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1511,7 +1516,7 @@
       <c r="E24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1520,7 +1525,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="33"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1530,7 +1535,7 @@
       <c r="E25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1539,7 +1544,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -1551,7 +1556,7 @@
       <c r="E26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1560,7 +1565,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="33"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="13" t="s">
         <v>22</v>
       </c>
@@ -1570,7 +1575,7 @@
       <c r="E27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1579,7 +1584,7 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1591,7 +1596,7 @@
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1600,7 +1605,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="31"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="6" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1615,7 @@
       <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1619,7 +1624,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -1631,7 +1636,7 @@
       <c r="E30" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1640,7 +1645,7 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1655,7 @@
       <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -1659,7 +1664,7 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -1671,7 +1676,7 @@
       <c r="E32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1680,7 +1685,7 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="6" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1695,7 @@
       <c r="E33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="37"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1725,11 +1730,11 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
@@ -1832,7 +1837,7 @@
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -1844,7 +1849,7 @@
       <c r="E41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="33" t="s">
         <v>74</v>
       </c>
       <c r="G41" s="10"/>
@@ -1855,7 +1860,7 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="33"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="13" t="s">
         <v>22</v>
       </c>
@@ -1865,7 +1870,7 @@
       <c r="E42" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="37"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -1874,7 +1879,7 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1886,8 +1891,8 @@
       <c r="E43" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="38" t="s">
-        <v>88</v>
+      <c r="F43" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -1897,7 +1902,7 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="35"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="6" t="s">
         <v>22</v>
       </c>
@@ -1907,7 +1912,7 @@
       <c r="E44" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="37"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -1916,11 +1921,11 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>83</v>
@@ -1928,55 +1933,55 @@
       <c r="E45" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="38" t="s">
-        <v>85</v>
+      <c r="F45" s="39" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="35"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="37"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="23" t="s">
+      <c r="F47" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.15">
@@ -1984,10 +1989,10 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.15">
@@ -2020,13 +2025,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B11:D11"/>
@@ -2039,6 +2037,13 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
